--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,7 +643,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>idNat_PS (Professionnel) : Identification nationale du professionnel définie par le CI-SIS</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.</t>
@@ -735,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
+    <t>boiteLettreMSS (Professionnel) : Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) au professionnel</t>
   </si>
   <si>
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
@@ -775,6 +775,22 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t>ror-telecom-communication-channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+</t>
+  </si>
+  <si>
+    <t>canal (Telecommunication) : Code spécifiant le canal ou la manière dont s'établit la communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
+  </si>
+  <si>
     <t>Practitioner.telecom.extension:ror-telecom-usage</t>
   </si>
   <si>
@@ -785,6 +801,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>
   </si>
   <si>
@@ -798,20 +817,10 @@
 </t>
   </si>
   <si>
+    <t>niveauConfidentialite (Telecommunication) : niveau de restriction de l'accès aux attributs de la classe Télécommunication</t>
+  </si>
+  <si>
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t>ror-telecom-communication-channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication </t>
   </si>
   <si>
     <t>Practitioner.telecom.system</t>
@@ -851,7 +860,7 @@
     <t>Practitioner.telecom.value</t>
   </si>
   <si>
-    <t>The actual contact point details</t>
+    <t>adresseTelecom (Telecommunication) : Valeur de l'adresse de télécommunication dans le format induit par le canal de communication</t>
   </si>
   <si>
     <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
@@ -4447,7 +4456,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>84</v>
@@ -4465,10 +4474,10 @@
         <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4548,20 +4557,20 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4576,13 +4585,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4662,13 +4671,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
@@ -4690,13 +4699,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4776,10 +4785,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4805,13 +4814,13 @@
         <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4840,10 +4849,10 @@
         <v>161</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4861,7 +4870,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4870,19 +4879,19 @@
         <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4890,10 +4899,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4919,16 +4928,16 @@
         <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4977,7 +4986,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4992,13 +5001,13 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5006,10 +5015,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5035,16 +5044,16 @@
         <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5072,10 +5081,10 @@
         <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5093,7 +5102,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5108,13 +5117,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5122,10 +5131,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5148,16 +5157,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5207,7 +5216,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5236,10 +5245,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5262,16 +5271,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5321,7 +5330,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5333,16 +5342,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5350,10 +5359,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5376,19 +5385,19 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5437,7 +5446,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5452,13 +5461,13 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5466,10 +5475,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5495,16 +5504,16 @@
         <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5532,10 +5541,10 @@
         <v>161</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5553,7 +5562,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5568,13 +5577,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5582,10 +5591,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5608,17 +5617,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5667,7 +5676,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5682,13 +5691,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5696,10 +5705,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5722,19 +5731,19 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5783,7 +5792,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5795,16 +5804,16 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5812,10 +5821,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5838,13 +5847,13 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5895,7 +5904,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5910,13 +5919,13 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5924,10 +5933,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6036,10 +6045,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6150,14 +6159,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6179,10 +6188,10 @@
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>110</v>
@@ -6237,7 +6246,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6266,10 +6275,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6295,14 +6304,14 @@
         <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6351,7 +6360,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6366,13 +6375,13 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6380,10 +6389,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6406,16 +6415,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6444,10 +6453,10 @@
         <v>154</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6465,7 +6474,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6480,13 +6489,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6494,10 +6503,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6520,19 +6529,19 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6581,7 +6590,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6593,16 +6602,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6610,10 +6619,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6636,16 +6645,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6695,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6707,13 +6716,13 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6724,10 +6733,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6750,19 +6759,19 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6811,7 +6820,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6826,13 +6835,13 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4117,7 +4117,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="396">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:ror-practitioner-title</t>
+  </si>
+  <si>
+    <t>ror-practitioner-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/RORPractitionerTitle}
+</t>
+  </si>
+  <si>
+    <t>civilite (PersonnePhysique) : Civilité de la personne physique</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR pour définir la civilité de la personne physique</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -1533,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3642,43 +3658,41 @@
         <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3714,19 +3728,19 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3744,7 +3758,7 @@
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3762,36 +3776,38 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3828,19 +3844,19 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3852,27 +3868,27 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3880,7 +3896,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>84</v>
@@ -3895,26 +3911,22 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3958,13 +3970,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>96</v>
@@ -3973,24 +3985,24 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4001,7 +4013,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4013,24 +4025,26 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4074,13 +4088,13 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
@@ -4089,24 +4103,24 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4129,19 +4143,19 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4190,7 +4204,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4202,16 +4216,16 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>74</v>
@@ -4219,10 +4233,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4233,7 +4247,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4242,19 +4256,23 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4302,28 +4320,28 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4331,10 +4349,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4342,10 +4360,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4357,13 +4375,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4402,37 +4420,37 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4443,23 +4461,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C26" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4471,7 +4487,7 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>245</v>
@@ -4516,16 +4532,16 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>114</v>
@@ -4560,7 +4576,7 @@
         <v>247</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>248</v>
@@ -4570,7 +4586,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
@@ -4674,7 +4690,7 @@
         <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>253</v>
@@ -4684,7 +4700,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4788,15 +4804,17 @@
         <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4808,20 +4826,18 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4846,13 +4862,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4870,28 +4886,28 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4899,10 +4915,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4910,7 +4926,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4925,20 +4941,18 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4962,13 +4976,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4986,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4995,19 +5009,19 @@
         <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>269</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5015,10 +5029,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5026,7 +5040,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -5035,25 +5049,25 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5078,13 +5092,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5102,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5117,13 +5131,13 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5131,10 +5145,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5151,24 +5165,26 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5192,13 +5208,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5216,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5231,13 +5247,13 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5245,10 +5261,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5271,16 +5287,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5330,7 +5346,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5342,16 +5358,16 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5359,10 +5375,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5373,7 +5389,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5385,20 +5401,18 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5446,28 +5460,28 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5475,10 +5489,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5489,7 +5503,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5501,19 +5515,19 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5538,13 +5552,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5562,13 +5576,13 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
@@ -5577,13 +5591,13 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5591,10 +5605,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5617,17 +5631,19 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5652,13 +5668,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5676,7 +5692,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5691,13 +5707,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5705,10 +5721,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5719,7 +5735,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5728,22 +5744,20 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5792,28 +5806,28 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5821,10 +5835,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5847,16 +5861,20 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5904,7 +5922,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5916,16 +5934,16 @@
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5933,10 +5951,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5947,7 +5965,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5959,13 +5977,13 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6016,28 +6034,28 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6045,21 +6063,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6071,17 +6089,15 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6118,37 +6134,37 @@
         <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6159,14 +6175,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6179,26 +6195,24 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6234,19 +6248,19 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6282,7 +6296,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6295,23 +6309,25 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>356</v>
+        <v>203</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6360,7 +6376,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6372,16 +6388,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>98</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6389,10 +6405,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6400,10 +6416,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6415,18 +6431,18 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6450,13 +6466,13 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>74</v>
@@ -6474,13 +6490,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>96</v>
@@ -6489,13 +6505,13 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6503,10 +6519,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6514,7 +6530,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>84</v>
@@ -6529,20 +6545,18 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6566,13 +6580,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>370</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6590,10 +6604,10 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>84</v>
@@ -6602,16 +6616,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6619,10 +6633,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6645,18 +6659,20 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6704,7 +6720,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6716,16 +6732,16 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6733,10 +6749,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6747,7 +6763,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6759,20 +6775,18 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6796,13 +6810,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6820,30 +6834,146 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AK47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -614,7 +614,10 @@
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -634,6 +637,22 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour définir la civilité de la personne physique</t>
+  </si>
+  <si>
+    <t>Practitioner.extension:ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t>ror-meta-creation-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+</t>
+  </si>
+  <si>
+    <t>dateCreation (Metadonnee)</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -783,12 +802,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Practitioner.telecom.extension:ror-telecom-communication-channel</t>
@@ -1549,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2412,7 +2425,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>84</v>
@@ -3548,11 +3561,11 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3570,14 +3583,12 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3626,7 +3637,7 @@
         <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3644,7 +3655,7 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3655,13 +3666,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>74</v>
@@ -3683,13 +3694,13 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3740,7 +3751,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3769,46 +3780,44 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3844,19 +3853,19 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3874,7 +3883,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3885,33 +3894,33 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>207</v>
@@ -3919,7 +3928,9 @@
       <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>209</v>
       </c>
@@ -3958,19 +3969,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3982,27 +3993,27 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4010,7 +4021,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>84</v>
@@ -4025,26 +4036,22 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="P22" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4088,13 +4095,13 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
@@ -4103,24 +4110,24 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4131,7 +4138,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4143,24 +4150,26 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4204,13 +4213,13 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
@@ -4219,24 +4228,24 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4259,19 +4268,19 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4320,7 +4329,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4332,16 +4341,16 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4349,10 +4358,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4363,7 +4372,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4372,19 +4381,23 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4432,28 +4445,28 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4461,10 +4474,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4472,10 +4485,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4487,13 +4500,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>102</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4532,37 +4545,37 @@
         <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4573,23 +4586,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4601,13 +4612,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4646,16 +4657,16 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>114</v>
@@ -4687,20 +4698,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4715,13 +4726,13 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4801,20 +4812,20 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4829,13 +4840,13 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4915,18 +4926,20 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>84</v>
@@ -4938,20 +4951,18 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>265</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4976,13 +4987,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5000,28 +5011,28 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5029,10 +5040,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5040,7 +5051,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -5055,20 +5066,18 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5092,13 +5101,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5116,7 +5125,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5125,19 +5134,19 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5145,10 +5154,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5156,7 +5165,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
@@ -5165,25 +5174,25 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5208,13 +5217,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5232,7 +5241,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5247,13 +5256,13 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5261,10 +5270,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5281,24 +5290,26 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5322,13 +5333,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5346,7 +5357,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5361,13 +5372,13 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>104</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5375,10 +5386,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5401,16 +5412,16 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5460,7 +5471,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5472,16 +5483,16 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5489,10 +5500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5503,7 +5514,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5515,20 +5526,18 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5582,22 +5591,22 @@
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5605,10 +5614,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5619,7 +5628,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5631,19 +5640,19 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5668,13 +5677,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5692,13 +5701,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>96</v>
@@ -5707,13 +5716,13 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5721,10 +5730,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5747,17 +5756,19 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5782,13 +5793,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5806,7 +5817,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5821,13 +5832,13 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5835,10 +5846,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5849,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5858,22 +5869,20 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5922,28 +5931,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5951,10 +5960,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5977,16 +5986,20 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6034,7 +6047,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6046,16 +6059,16 @@
         <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6063,10 +6076,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6077,7 +6090,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6089,13 +6102,13 @@
         <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6146,28 +6159,28 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>103</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6175,21 +6188,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6201,17 +6214,15 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6248,37 +6259,37 @@
         <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6289,14 +6300,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6309,26 +6320,24 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>109</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6364,19 +6373,19 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6405,14 +6414,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6425,13 +6434,13 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>359</v>
@@ -6439,9 +6448,11 @@
       <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6490,7 +6501,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6502,16 +6513,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6519,10 +6530,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6530,10 +6541,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6545,18 +6556,18 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6580,13 +6591,13 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6604,13 +6615,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>96</v>
@@ -6619,13 +6630,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6633,10 +6644,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6644,7 +6655,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6659,20 +6670,18 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6696,13 +6705,13 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
@@ -6720,10 +6729,10 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
@@ -6732,16 +6741,16 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6749,10 +6758,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6775,18 +6784,20 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6834,7 +6845,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6846,16 +6857,16 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>386</v>
+        <v>309</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -6863,10 +6874,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6877,7 +6888,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6889,20 +6900,18 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6926,13 +6935,13 @@
         <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>74</v>
@@ -6950,30 +6959,146 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AK48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -629,7 +629,7 @@
     <t>ror-practitioner-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/RORPractitionerTitle}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerTitle}
 </t>
   </si>
   <si>
@@ -645,14 +645,14 @@
     <t>ror-meta-creation-date</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-meta-creation-date}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-meta-creation-date}
 </t>
   </si>
   <si>
     <t>dateCreation (Metadonnee)</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régionnal) présente dans les métadonnées.</t>
+    <t>Extension créée dans le cadre du ROR qui correspond à la date de création (dans le ROR régional) présente dans les métadonnées.</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -810,7 +810,7 @@
     <t>ror-telecom-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-communication-channel}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ror-telecom-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-telecom-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-confidentiality-level}
 </t>
   </si>
   <si>
@@ -1581,7 +1581,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="453">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -621,22 +621,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.extension:ror-practitioner-title</t>
-  </si>
-  <si>
-    <t>ror-practitioner-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/RORPractitionerTitle}
-</t>
-  </si>
-  <si>
-    <t>civilite (PersonnePhysique) : Civilité de la personne physique</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour définir la civilité de la personne physique</t>
   </si>
   <si>
     <t>Practitioner.extension:ror-meta-creation-date</t>
@@ -763,6 +747,206 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civilite (PersonnePhysique) : Civilite de la personne physique </t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J207-Civilite-ROR/FHIR/JDV-J207-Civilite-ROR</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -861,9 +1045,6 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
@@ -940,9 +1121,6 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>./ContactPointPurpose</t>
   </si>
   <si>
@@ -968,31 +1146,13 @@
     <t>Practitioner.telecom.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when the contact point was/is in use</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1562,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3679,7 +3839,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3783,41 +3943,43 @@
         <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3853,19 +4015,19 @@
         <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3883,7 +4045,7 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -3901,38 +4063,36 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3969,19 +4129,19 @@
         <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3993,27 +4153,27 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4021,7 +4181,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>84</v>
@@ -4036,72 +4196,76 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>96</v>
@@ -4110,24 +4274,24 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4138,7 +4302,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -4150,76 +4314,74 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>96</v>
@@ -4228,24 +4390,24 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4256,7 +4418,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4265,23 +4427,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4329,28 +4487,28 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>74</v>
@@ -4358,14 +4516,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4381,23 +4539,21 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4433,19 +4589,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4457,16 +4613,16 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4474,10 +4630,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4494,22 +4650,26 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4533,13 +4693,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4557,7 +4717,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4566,19 +4726,19 @@
         <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4586,10 +4746,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4597,31 +4757,35 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4657,37 +4821,37 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4698,20 +4862,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4723,18 +4885,20 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4783,28 +4947,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4812,23 +4976,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4837,18 +4999,20 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4897,7 +5061,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4909,16 +5073,16 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -4926,23 +5090,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4951,18 +5113,20 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4987,13 +5151,11 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5011,7 +5173,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5023,16 +5185,16 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5040,10 +5202,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5054,7 +5216,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -5066,16 +5228,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5101,13 +5263,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5125,28 +5287,28 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5154,10 +5316,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5165,7 +5327,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>84</v>
@@ -5180,19 +5342,19 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5241,7 +5403,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5253,16 +5415,16 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>74</v>
@@ -5270,10 +5432,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5284,31 +5446,31 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5333,13 +5495,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5357,28 +5519,28 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5386,10 +5548,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5409,20 +5571,18 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5471,7 +5631,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5480,13 +5640,13 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>104</v>
@@ -5500,10 +5660,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5511,10 +5671,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5523,20 +5683,18 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5573,40 +5731,40 @@
         <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>114</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>115</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5614,21 +5772,23 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5637,7 +5797,7 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>313</v>
@@ -5648,12 +5808,8 @@
       <c r="M36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5701,7 +5857,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>114</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5713,16 +5869,16 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>74</v>
@@ -5730,12 +5886,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5753,23 +5911,19 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5793,13 +5947,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5817,28 +5971,28 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -5846,18 +6000,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5869,21 +6025,19 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5931,28 +6085,28 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>114</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -5960,10 +6114,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5974,7 +6128,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5983,23 +6137,21 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6023,13 +6175,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6047,28 +6199,28 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>74</v>
@@ -6076,10 +6228,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6087,10 +6239,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6099,19 +6251,23 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6159,13 +6315,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -6174,13 +6330,13 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>74</v>
@@ -6188,10 +6344,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6208,22 +6364,26 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6247,13 +6407,13 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -6271,7 +6431,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6280,19 +6440,19 @@
         <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6300,21 +6460,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6323,19 +6483,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6373,37 +6533,37 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>114</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6414,46 +6574,44 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6501,28 +6659,28 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>74</v>
@@ -6530,10 +6688,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6553,20 +6711,22 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6615,7 +6775,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6630,13 +6790,13 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6644,10 +6804,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6655,7 +6815,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6667,21 +6827,23 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6705,34 +6867,34 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>84</v>
@@ -6744,13 +6906,13 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>74</v>
@@ -6758,10 +6920,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6781,22 +6943,20 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6845,7 +7005,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6857,16 +7017,16 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>74</v>
@@ -6874,10 +7034,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6888,7 +7048,7 @@
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6900,18 +7060,20 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6959,28 +7121,28 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>74</v>
@@ -6988,10 +7150,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7014,20 +7176,16 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7051,13 +7209,13 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -7075,7 +7233,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7090,15 +7248,931 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -869,7 +869,7 @@
     <t>Practitioner.name.prefix</t>
   </si>
   <si>
-    <t xml:space="preserve">Civilite (PersonnePhysique) : Civilite de la personne physique </t>
+    <t>Civilite (PersonnePhysique) : Civilite de la personne physique</t>
   </si>
   <si>
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
@@ -1014,7 +1014,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">utilisation (Telecommunication) : Utilisation du canal de communication </t>
+    <t>utilisation (Telecommunication) : Utilisation du canal de communication</t>
   </si>
   <si>
     <t xml:space="preserve">Extension créée dans le cadre du ROR qui précise l'utilisation du canal de communication </t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
